--- a/relatorios/base de dados/UP ESTACAO VILA SONIA ECN 2025_02_05 18_26_27.xlsx
+++ b/relatorios/base de dados/UP ESTACAO VILA SONIA ECN 2025_02_05 18_26_27.xlsx
@@ -4729,13 +4729,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0522E30D-49C0-446F-9EE1-935F050C9B90}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB2DD3B-91E0-418A-B9D1-2C3D689C4337}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282ABB20-2702-476A-B5BA-4EB46D2BEE5C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB42F838-72AB-4DAF-A824-93E041D93FCE}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6284A99E-FC38-40F8-A4E0-A636AAABCFF3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB1061D5-D893-4028-8B9F-AC819E516DEB}"/>
 </file>
--- a/relatorios/base de dados/UP ESTACAO VILA SONIA ECN 2025_02_05 18_26_27.xlsx
+++ b/relatorios/base de dados/UP ESTACAO VILA SONIA ECN 2025_02_05 18_26_27.xlsx
@@ -4729,13 +4729,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEB2DD3B-91E0-418A-B9D1-2C3D689C4337}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88CFBB74-06C7-481E-BE0D-4F3338A1B1A7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB42F838-72AB-4DAF-A824-93E041D93FCE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBCFE6F6-9DE7-4523-9DAB-E30581BBA6C2}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB1061D5-D893-4028-8B9F-AC819E516DEB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{344D2E9F-81CB-429F-AEE4-FC364916BA1B}"/>
 </file>